--- a/src/Pickles/MIL_pickles/Output/AN160_TestScript_Desktop_Analysis_System_FR_NFR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN160_TestScript_Desktop_Analysis_System_FR_NFR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <x:si>
     <x:t>AddROI</x:t>
   </x:si>
@@ -339,18 +339,6 @@
   </x:si>
   <x:si>
     <x:t>caries ROI indicators are brightly coloured</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROIConsistentSize</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR003-4, @UR003-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 bitewing images of different resolution</x:t>
-  </x:si>
-  <x:si>
-    <x:t>caries ROI indicators in both images are a consistent size</x:t>
   </x:si>
   <x:si>
     <x:t>SeeWhatsNew</x:t>
@@ -908,7 +896,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -948,17 +936,17 @@
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="B9" s="4" t="s">
-        <x:v>109</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="B10" s="4" t="s">
-        <x:v>135</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="B11" s="4" t="s">
-        <x:v>150</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1883,7 +1871,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D33"/>
+  <x:dimension ref="A1:D26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2035,44 +2023,6 @@
       </x:c>
       <x:c r="D26" s="0" t="s">
         <x:v>104</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:4">
-      <x:c r="B28" s="1" t="s">
-        <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4">
-      <x:c r="B29" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:4"/>
-    <x:row r="31" spans="1:4">
-      <x:c r="C31" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:4">
-      <x:c r="C32" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:4">
-      <x:c r="C33" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>108</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2097,7 +2047,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -2105,13 +2055,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4"/>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -2119,7 +2069,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -2128,7 +2078,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2136,7 +2086,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -2144,12 +2094,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -2157,7 +2107,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -2166,7 +2116,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -2174,7 +2124,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -2182,7 +2132,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -2190,7 +2140,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -2198,7 +2148,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -2206,12 +2156,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="B22" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -2219,7 +2169,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4"/>
@@ -2228,7 +2178,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -2236,7 +2186,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -2244,7 +2194,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -2252,7 +2202,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -2260,12 +2210,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="B31" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
@@ -2273,7 +2223,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4"/>
@@ -2282,7 +2232,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
@@ -2290,7 +2240,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -2298,7 +2248,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
@@ -2306,7 +2256,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
@@ -2314,7 +2264,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
@@ -2322,7 +2272,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
@@ -2330,12 +2280,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
       <x:c r="B42" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
@@ -2343,7 +2293,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4"/>
@@ -2352,7 +2302,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
@@ -2360,7 +2310,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
@@ -2368,7 +2318,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2393,7 +2343,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -2401,13 +2351,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4"/>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -2415,7 +2365,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -2432,7 +2382,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -2440,7 +2390,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -2448,7 +2398,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -2456,12 +2406,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="B14" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -2469,7 +2419,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4"/>
@@ -2486,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -2494,7 +2444,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -2502,7 +2452,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -2510,7 +2460,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -2518,7 +2468,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2543,7 +2493,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -2551,17 +2501,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -2569,7 +2519,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -2578,7 +2528,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2594,7 +2544,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
